--- a/DateBase/orders/Dang Nguyen_2025-4-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-5.xlsx
@@ -878,6 +878,9 @@
       <c r="G2" t="str">
         <v>02015581026224201010138245628754151020152020201010101052121010106</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
